--- a/src/main/webapp/files/demo.xlsx
+++ b/src/main/webapp/files/demo.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a5cedf07c98e6b8/Documents/2019-2020-2/Web应用开发/EXP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{A68CD187-A85A-40F5-A67F-C75E6FB7E888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63F4E2E0-48DD-4426-A1A7-C6BDB2BEA553}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{A68CD187-A85A-40F5-A67F-C75E6FB7E888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F56380F0-4DA0-4F32-B35B-3795DAA238D4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3456" windowWidth="17280" windowHeight="9420" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="学院" sheetId="2" r:id="rId1"/>
-    <sheet name="专业" sheetId="3" r:id="rId2"/>
-    <sheet name="班级" sheetId="4" r:id="rId3"/>
-    <sheet name="管理员" sheetId="1" r:id="rId4"/>
-    <sheet name="教师" sheetId="5" r:id="rId5"/>
-    <sheet name="学生" sheetId="6" r:id="rId6"/>
+    <sheet name="班级" sheetId="4" r:id="rId1"/>
+    <sheet name="管理员" sheetId="1" r:id="rId2"/>
+    <sheet name="教师" sheetId="5" r:id="rId3"/>
+    <sheet name="学生" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="113">
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件工程1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡皓睿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,13 +425,88 @@
   </si>
   <si>
     <t>00024</t>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康码访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1533144693@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i@huhaorui.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +517,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -479,21 +549,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,368 +881,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437AEA89-61AA-4692-BE41-9AEFCD75BA7A}">
-  <dimension ref="A1:A27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793A8208-EC3D-40A0-BB0F-0C6CFBCBF4C5}">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F3A44F-639C-4141-9C6E-FFC6030751E4}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1176,65 +895,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>1801</v>
@@ -1242,211 +961,199 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0109772-4DFB-44EE-80D4-ACDC2AE507EC}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1163,207 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0109772-4DFB-44EE-80D4-ACDC2AE507EC}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{3C35C882-2388-4FED-82E2-C164DD4BAA23}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{EF6FE8F9-5B74-40DE-BAB8-AAFE42C4DE2D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAB36D6-6118-4E72-8E56-638EC518DD71}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1475,366 +1382,366 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C5451-2247-4A12-B657-956AF51B9996}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1865,62 +1772,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/files/demo.xlsx
+++ b/src/main/webapp/files/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a5cedf07c98e6b8/Documents/2019-2020-2/Web应用开发/EXP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\ZJUT_Anti_2019_nCoV\src\main\webapp\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{A68CD187-A85A-40F5-A67F-C75E6FB7E888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F56380F0-4DA0-4F32-B35B-3795DAA238D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF9CE6-3A84-45CE-8DA9-86979AED4AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
   <si>
     <t>学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,13 +488,6 @@
   </si>
   <si>
     <t>000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -884,13 +877,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F3A44F-639C-4141-9C6E-FFC6030751E4}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,8 +950,8 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1">
-        <v>1801</v>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,7 +962,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,7 +995,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,7 +1006,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,7 +1028,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,7 +1163,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1279,6 +1274,9 @@
       <c r="F4" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>119</v>
       </c>
@@ -1302,6 +1300,9 @@
       <c r="F5" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>119</v>
       </c>
@@ -1325,6 +1326,9 @@
       <c r="F6" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>119</v>
       </c>
@@ -1347,6 +1351,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>119</v>
@@ -1357,9 +1364,13 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{3C35C882-2388-4FED-82E2-C164DD4BAA23}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{EF6FE8F9-5B74-40DE-BAB8-AAFE42C4DE2D}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{F6AAE7A6-DAAF-4F2A-86DB-773B371392CE}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{48E8167B-AE3C-4AB7-85CD-C1B0FCF56463}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{82860991-6A5F-4231-8B54-B925B0427050}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{5064C750-634C-4020-9F10-4F4DCEDB4258}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1807,7 +1818,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,7 +1838,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/files/demo.xlsx
+++ b/src/main/webapp/files/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\ZJUT_Anti_2019_nCoV\src\main\webapp\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\ZJUT_Anti_2019_nCoV\src\main\webapp\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF9CE6-3A84-45CE-8DA9-86979AED4AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E00901-8D7F-4286-B2C6-B171D04BC9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14160" activeTab="3" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
   </bookViews>
   <sheets>
     <sheet name="班级" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,10 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1533144693@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,6 +488,46 @@
   </si>
   <si>
     <t>1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某不知名学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师00025号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划水工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生划水01号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806060001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生划水02号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,9 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F3A44F-639C-4141-9C6E-FFC6030751E4}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1035,6 +1069,9 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1160,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0109772-4DFB-44EE-80D4-ACDC2AE507EC}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1219,19 +1256,16 @@
       <c r="E2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>115</v>
@@ -1245,19 +1279,16 @@
       <c r="E3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>116</v>
@@ -1271,19 +1302,16 @@
       <c r="E4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>116</v>
@@ -1297,19 +1325,16 @@
       <c r="E5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>116</v>
@@ -1323,19 +1348,16 @@
       <c r="E6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>116</v>
@@ -1353,10 +1375,85 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>119</v>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1368,18 +1465,21 @@
     <hyperlink ref="G5" r:id="rId4" xr:uid="{48E8167B-AE3C-4AB7-85CD-C1B0FCF56463}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{82860991-6A5F-4231-8B54-B925B0427050}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{5064C750-634C-4020-9F10-4F4DCEDB4258}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{5D659056-B298-484F-9AB1-54144B34A4B8}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{4BCAD0FC-1650-4789-93FA-52D514BFFD07}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{DFB745B1-B86A-48A1-98DA-7D8B0F8501E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAB36D6-6118-4E72-8E56-638EC518DD71}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1755,6 +1855,20 @@
         <v>54</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,18 +1878,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C5451-2247-4A12-B657-956AF51B9996}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -1812,13 +1926,13 @@
         <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,13 +1946,93 @@
         <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/files/demo.xlsx
+++ b/src/main/webapp/files/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\ZJUT_Anti_2019_nCoV\src\main\webapp\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\ZJUT_Anti_2019_nCoV\src\main\webapp\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E00901-8D7F-4286-B2C6-B171D04BC9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBAAC45-C5A3-4CBE-9D5D-2770D283DF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14160" activeTab="3" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
   </bookViews>
   <sheets>
     <sheet name="班级" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
   <si>
     <t>学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算机科学与技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡皓睿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,51 +479,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师00025号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生划水01号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806060001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00025</t>
+  </si>
+  <si>
+    <t>学生划水02号</t>
+  </si>
+  <si>
+    <t>学生划水03号</t>
+  </si>
+  <si>
+    <t>学生划水04号</t>
+  </si>
+  <si>
+    <t>学生划水05号</t>
+  </si>
+  <si>
+    <t>学生划水06号</t>
+  </si>
+  <si>
+    <t>330726200006272001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806060002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136722817772016454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某不知名学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师00025号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>划水工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生划水01号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201806060001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生划水02号</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>201806060003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806060004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806060005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806060006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F3A44F-639C-4141-9C6E-FFC6030751E4}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1070,7 +1102,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,7 +1232,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1219,16 +1251,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -1242,218 +1274,221 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1484,10 +1519,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1507,366 +1542,366 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1878,20 +1913,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C5451-2247-4A12-B657-956AF51B9996}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1932,18 +1967,18 @@
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1952,87 +1987,127 @@
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>125</v>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/files/demo.xlsx
+++ b/src/main/webapp/files/demo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23006"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\ZJUT_Anti_2019_nCoV\src\main\webapp\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HHR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBAAC45-C5A3-4CBE-9D5D-2770D283DF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D8CA95-4CF4-4D18-826B-5F19DE3E9EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3EBDF48C-A009-4FBA-A3D2-D4BE70D340ED}"/>
   </bookViews>
   <sheets>
     <sheet name="班级" sheetId="4" r:id="rId1"/>
     <sheet name="管理员" sheetId="1" r:id="rId2"/>
-    <sheet name="教师" sheetId="5" r:id="rId3"/>
+    <sheet name="教师" sheetId="7" r:id="rId3"/>
     <sheet name="学生" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="150">
   <si>
     <t>学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,86 +267,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师00001号</t>
-  </si>
-  <si>
     <t>00000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师00000号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师00002号</t>
-  </si>
-  <si>
-    <t>教师00003号</t>
-  </si>
-  <si>
-    <t>教师00004号</t>
-  </si>
-  <si>
-    <t>教师00005号</t>
-  </si>
-  <si>
-    <t>教师00006号</t>
-  </si>
-  <si>
-    <t>教师00007号</t>
-  </si>
-  <si>
-    <t>教师00008号</t>
-  </si>
-  <si>
-    <t>教师00009号</t>
-  </si>
-  <si>
-    <t>教师00010号</t>
-  </si>
-  <si>
-    <t>教师00011号</t>
-  </si>
-  <si>
-    <t>教师00012号</t>
-  </si>
-  <si>
-    <t>教师00013号</t>
-  </si>
-  <si>
-    <t>教师00014号</t>
-  </si>
-  <si>
-    <t>教师00015号</t>
-  </si>
-  <si>
-    <t>教师00016号</t>
-  </si>
-  <si>
-    <t>教师00017号</t>
-  </si>
-  <si>
-    <t>教师00018号</t>
-  </si>
-  <si>
-    <t>教师00019号</t>
-  </si>
-  <si>
-    <t>教师00020号</t>
-  </si>
-  <si>
-    <t>教师00021号</t>
-  </si>
-  <si>
-    <t>教师00022号</t>
-  </si>
-  <si>
-    <t>教师00023号</t>
-  </si>
-  <si>
-    <t>教师00024号</t>
-  </si>
-  <si>
     <t>136722817772016453</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,18 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师00025号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生划水01号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201806060001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,21 +418,6 @@
     <t>00025</t>
   </si>
   <si>
-    <t>学生划水02号</t>
-  </si>
-  <si>
-    <t>学生划水03号</t>
-  </si>
-  <si>
-    <t>学生划水04号</t>
-  </si>
-  <si>
-    <t>学生划水05号</t>
-  </si>
-  <si>
-    <t>学生划水06号</t>
-  </si>
-  <si>
     <t>330726200006272001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,6 +455,129 @@
   </si>
   <si>
     <t>201806060006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘铁生</t>
+  </si>
+  <si>
+    <t>张伍绍祖</t>
+  </si>
+  <si>
+    <t>马继祖</t>
+  </si>
+  <si>
+    <t>程孝先</t>
+  </si>
+  <si>
+    <t>宗敬先</t>
+  </si>
+  <si>
+    <t>年广嗣</t>
+  </si>
+  <si>
+    <t>汤绍箕</t>
+  </si>
+  <si>
+    <t>吕显祖</t>
+  </si>
+  <si>
+    <t>何光宗</t>
+  </si>
+  <si>
+    <t>孙念祖</t>
+  </si>
+  <si>
+    <t>马建国</t>
+  </si>
+  <si>
+    <t>节振国</t>
+  </si>
+  <si>
+    <t>冯兴国</t>
+  </si>
+  <si>
+    <t>郝爱民</t>
+  </si>
+  <si>
+    <t>于学忠</t>
+  </si>
+  <si>
+    <t>马连良</t>
+  </si>
+  <si>
+    <t>胡宝善</t>
+  </si>
+  <si>
+    <t>李宗仁</t>
+  </si>
+  <si>
+    <t>洪学智</t>
+  </si>
+  <si>
+    <t>余克勤</t>
+  </si>
+  <si>
+    <t>吴克俭</t>
+  </si>
+  <si>
+    <t>杨惟义</t>
+  </si>
+  <si>
+    <t>李文信</t>
+  </si>
+  <si>
+    <t>王德茂</t>
+  </si>
+  <si>
+    <t>李书诚</t>
+  </si>
+  <si>
+    <t>高尚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈昊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806061201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀的同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常优秀的同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般的同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201806060008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,18 +963,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F3A44F-639C-4141-9C6E-FFC6030751E4}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="67" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -976,7 +996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,7 +1007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,7 +1073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1097,125 +1117,128 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1232,35 +1255,35 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -1272,223 +1295,223 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1498,11 +1521,11 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{EF6FE8F9-5B74-40DE-BAB8-AAFE42C4DE2D}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{F6AAE7A6-DAAF-4F2A-86DB-773B371392CE}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{48E8167B-AE3C-4AB7-85CD-C1B0FCF56463}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{82860991-6A5F-4231-8B54-B925B0427050}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{5064C750-634C-4020-9F10-4F4DCEDB4258}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{5D659056-B298-484F-9AB1-54144B34A4B8}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{4BCAD0FC-1650-4789-93FA-52D514BFFD07}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{DFB745B1-B86A-48A1-98DA-7D8B0F8501E3}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{5064C750-634C-4020-9F10-4F4DCEDB4258}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{5D659056-B298-484F-9AB1-54144B34A4B8}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{4BCAD0FC-1650-4789-93FA-52D514BFFD07}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{DFB745B1-B86A-48A1-98DA-7D8B0F8501E3}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{82860991-6A5F-4231-8B54-B925B0427050}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -1510,23 +1533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAB36D6-6118-4E72-8E56-638EC518DD71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F76BE1C-B596-488A-B12E-A84C1739B2EC}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1540,365 +1556,365 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -1907,30 +1923,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820C5451-2247-4A12-B657-956AF51B9996}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1950,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1967,10 +1982,10 @@
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1987,38 +2002,38 @@
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -2027,18 +2042,18 @@
         <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -2047,18 +2062,18 @@
         <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -2067,18 +2082,18 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -2087,18 +2102,18 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2107,7 +2122,27 @@
         <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
